--- a/inputs/cell_data.xlsx
+++ b/inputs/cell_data.xlsx
@@ -4,10 +4,10 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="c_rate 0.3"/>
+    <sheet r:id="rId1" sheetId="1" name="c_rate 0.2"/>
     <sheet r:id="rId2" sheetId="2" name="c_rate 1.0"/>
     <sheet r:id="rId3" sheetId="3" name="c_rate 1.5"/>
     <sheet r:id="rId4" sheetId="4" name="c_rate 2.0"/>
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>capacity (mAh)</t>
   </si>
   <si>
     <t>terminal voltage (V)</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   </sheetPr>
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -419,7 +416,7 @@
     <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2831,7 +2828,7 @@
   </sheetPr>
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2839,7 +2836,7 @@
     <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2864,8 +2861,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>3.4445676181566</v>
       </c>
       <c r="B4" s="2">
         <v>5.692070940283349</v>
